--- a/data/results/result0.xlsx
+++ b/data/results/result0.xlsx
@@ -109,19 +109,19 @@
     <t>巴西粗粉=[8.0]</t>
   </si>
   <si>
-    <t>高品澳粉=[15.0]</t>
+    <t>高品澳粉=[13.91427]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.42524]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.51358]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[38.8608]</t>
+    <t>过筛镍矿=[11.4245]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[10.46085]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[40.0]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>15</v>
+        <v>13.91427</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.42524</v>
+        <v>11.4245</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.51358</v>
+        <v>10.46085</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>38.8608</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>443.4680453201162</v>
+        <v>442.0814476384141</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.3051904617602</v>
+        <v>489.8003896542826</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.96527579466377</v>
+        <v>55.92476055864201</v>
       </c>
       <c r="D14">
-        <v>5.237141189115701</v>
+        <v>5.274970149791958</v>
       </c>
       <c r="E14">
-        <v>2.718739487947406</v>
+        <v>2.717797591399603</v>
       </c>
       <c r="F14">
-        <v>0.7384167601515534</v>
+        <v>0.7376830314837546</v>
       </c>
       <c r="G14">
-        <v>2.999999877463383</v>
+        <v>2.99999990828157</v>
       </c>
       <c r="H14">
-        <v>0.04886784194936254</v>
+        <v>0.04887097195789011</v>
       </c>
       <c r="I14">
-        <v>0.06680975728274544</v>
+        <v>0.06701576110056458</v>
       </c>
       <c r="J14">
-        <v>0.1799999854654086</v>
+        <v>0.179999945269689</v>
       </c>
       <c r="M14" s="1">
-        <v>529.8860205684502</v>
+        <v>528.4514636077904</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>
